--- a/ProgettoDB/tabelleDB.xlsx
+++ b/ProgettoDB/tabelleDB.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="143" documentId="7_{238DD747-6DD4-C440-8725-0057AF580E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2969969-614D-AD49-9EC7-BA4F391B7CF3}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\campusfc.dir.unibo.it\share\UtentiIngISI\studenti\alesja.delja\Documents\Basi di dati\DBFair\ProgettoDB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B0347-8E47-40E9-ACD0-C5F3C4178AA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitatori" sheetId="1" r:id="rId1"/>
+    <sheet name="Aziende" sheetId="2" r:id="rId2"/>
+    <sheet name="Padiglioni" sheetId="3" r:id="rId3"/>
+    <sheet name="Spazi" sheetId="4" r:id="rId4"/>
+    <sheet name="Prodotti" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="198">
   <si>
     <t>codice fiscale</t>
   </si>
@@ -228,12 +225,410 @@
   </si>
   <si>
     <t>TRCTMS19R11C155Z</t>
+  </si>
+  <si>
+    <t>codiceAzienda</t>
+  </si>
+  <si>
+    <t>Denominazione</t>
+  </si>
+  <si>
+    <t>Specializzazione</t>
+  </si>
+  <si>
+    <t>codicePadiglione</t>
+  </si>
+  <si>
+    <t>specializzazione Richiesta</t>
+  </si>
+  <si>
+    <t>orarioApertura</t>
+  </si>
+  <si>
+    <t>orarioChiusura</t>
+  </si>
+  <si>
+    <t>giornoAperturaAreaBambini</t>
+  </si>
+  <si>
+    <t>numSpaziEsposizione</t>
+  </si>
+  <si>
+    <t>numSpaziEsposizioneOccupati</t>
+  </si>
+  <si>
+    <t>Stampanti</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Elettromestici</t>
+  </si>
+  <si>
+    <t>Audio e Video</t>
+  </si>
+  <si>
+    <t>Telefonia</t>
+  </si>
+  <si>
+    <t>CD-DVD</t>
+  </si>
+  <si>
+    <t>Videosorveglianza</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Modellismo</t>
+  </si>
+  <si>
+    <t>ABREX</t>
+  </si>
+  <si>
+    <t>2 Emme Foto</t>
+  </si>
+  <si>
+    <t>Milk Audio Store</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>3DiTALY</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Ignis</t>
+  </si>
+  <si>
+    <t>OCEAN</t>
+  </si>
+  <si>
+    <t>Smeg</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Oppo</t>
+  </si>
+  <si>
+    <t>Philips</t>
+  </si>
+  <si>
+    <t>SiComputer</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>DSE</t>
+  </si>
+  <si>
+    <t>AMELI SRL</t>
+  </si>
+  <si>
+    <t>NSC ITALIA</t>
+  </si>
+  <si>
+    <t>Robotecnica Srl.</t>
+  </si>
+  <si>
+    <t>Tekna Automazioni Srl.</t>
+  </si>
+  <si>
+    <t>ABL Automazione S.p.A.</t>
+  </si>
+  <si>
+    <t>Lettera</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>codiceProdotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prezzo </t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>codice Azienda</t>
+  </si>
+  <si>
+    <t>Supporto Aerografi Magnetico</t>
+  </si>
+  <si>
+    <t>Kit pneumatico lavorazione lamierati</t>
+  </si>
+  <si>
+    <t>CD STAR</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Stampa su cd serigrafica</t>
+  </si>
+  <si>
+    <t>DJI RONIN 4D 4-AXIS CINECAM 8K COMBO</t>
+  </si>
+  <si>
+    <t>drone</t>
+  </si>
+  <si>
+    <t>GOXTREME BARRACUDA WP</t>
+  </si>
+  <si>
+    <t>action cam</t>
+  </si>
+  <si>
+    <t>Buchla Easel Command</t>
+  </si>
+  <si>
+    <t>Stampante HP LaserJet M209dw</t>
+  </si>
+  <si>
+    <t>stampante laser</t>
+  </si>
+  <si>
+    <t>Scanner Enterprise HP ScanJet Flow N7000 snw1</t>
+  </si>
+  <si>
+    <t>scanner</t>
+  </si>
+  <si>
+    <t>Macchina da stampa a bobina HP PageWide T250 HD</t>
+  </si>
+  <si>
+    <t>macchina da stampa industriali</t>
+  </si>
+  <si>
+    <t>FORM 3BL BASIC PACKAGE WITH SERVICE</t>
+  </si>
+  <si>
+    <t>Laser cutter</t>
+  </si>
+  <si>
+    <t>macchine a taglio laser</t>
+  </si>
+  <si>
+    <t>Stampa 3D</t>
+  </si>
+  <si>
+    <t>stampa dei vostri modelli in tempo reale</t>
+  </si>
+  <si>
+    <t>Uno Rev 3 Arduino</t>
+  </si>
+  <si>
+    <t>Leonardo with headers Arduino</t>
+  </si>
+  <si>
+    <t>Lavatrice RCSS149HMC-S</t>
+  </si>
+  <si>
+    <t>lavatrice a carica frontale</t>
+  </si>
+  <si>
+    <t>CANDY CRE H10A2DE-S asciugatrice</t>
+  </si>
+  <si>
+    <t>asciugatrice</t>
+  </si>
+  <si>
+    <t>CANDY CSTG 28TE/1-11</t>
+  </si>
+  <si>
+    <t>lavatrice a carica dall'alto</t>
+  </si>
+  <si>
+    <t>NFW 830 H IX</t>
+  </si>
+  <si>
+    <t>forno</t>
+  </si>
+  <si>
+    <t>REFRIGERATOR PFRC 400 S A+ WFS .</t>
+  </si>
+  <si>
+    <t>frigorifero</t>
+  </si>
+  <si>
+    <t>NO FROST REFRIG. MDD 550 NF BG A+</t>
+  </si>
+  <si>
+    <t>frigorifero SMEG FAB28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frigorifero </t>
+  </si>
+  <si>
+    <t>Frigo Snoopy</t>
+  </si>
+  <si>
+    <t>Frigo Topolino</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A12 (128 GB) Black</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A32 Black</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22 5G Black 128 GB</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro 128 GB Argento</t>
+  </si>
+  <si>
+    <t>Apple Watch Nike Series 7 GPS 41mm Alluminio</t>
+  </si>
+  <si>
+    <t>apple watch</t>
+  </si>
+  <si>
+    <t>Apple 10.2-inch iPad 2021 Wi-Fi 64GB - SILVER</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>OnePlus 10 Pro 5G</t>
+  </si>
+  <si>
+    <t>Monitor Led 49" Philips</t>
+  </si>
+  <si>
+    <t>monitor pc</t>
+  </si>
+  <si>
+    <t>SI COMPUTER ACTIVA PC USATO</t>
+  </si>
+  <si>
+    <t>computer case</t>
+  </si>
+  <si>
+    <t>Asus 14" Zenbook Duo UX482EGR</t>
+  </si>
+  <si>
+    <t>portatile</t>
+  </si>
+  <si>
+    <t>ACER - CONCEPTD 300 CT300</t>
+  </si>
+  <si>
+    <t>ThinkPad X1 Carbon Gen 9</t>
+  </si>
+  <si>
+    <t>MINI SPEED DOME POE</t>
+  </si>
+  <si>
+    <t>telecamera autotracking</t>
+  </si>
+  <si>
+    <t>Kit Videosorveglianza Ultra AHD 4 Telecamere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telecamera </t>
+  </si>
+  <si>
+    <t>Comelit</t>
+  </si>
+  <si>
+    <t>Sistemi di irrigazione con pannelli fotovoltaici</t>
+  </si>
+  <si>
+    <t>Scheda tecnica Aerogeneratore 30kW</t>
+  </si>
+  <si>
+    <t>Impianto di Produzione Contatori Gas</t>
+  </si>
+  <si>
+    <t>VINILE 12 pollici</t>
+  </si>
+  <si>
+    <t>pezzi modello auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kit </t>
+  </si>
+  <si>
+    <t>vinile</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>servizio di stampa in tempo reale</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>stampante 3D</t>
+  </si>
+  <si>
+    <t>arduino</t>
+  </si>
+  <si>
+    <t>estrazione acqua</t>
+  </si>
+  <si>
+    <t>uso turbine</t>
+  </si>
+  <si>
+    <t>montaggio contatori</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,6 +666,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -587,20 +987,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0808F2E3-AED5-CE4A-9ACC-8C0FA42CDB28}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.05859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.3125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.66015625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.609375" style="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +1017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -634,7 +1034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -651,7 +1051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -668,7 +1068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -685,7 +1085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -702,7 +1102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -719,7 +1119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -736,7 +1136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -753,7 +1153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -770,7 +1170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -787,7 +1187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -804,7 +1204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -821,7 +1221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -838,7 +1238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -855,7 +1255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -872,7 +1272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -889,7 +1289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -906,7 +1306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -923,7 +1323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -940,7 +1340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -960,4 +1360,1694 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BC05F4-4AAB-4C78-92F9-F5FA5141C6FF}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26627CC-5AA0-45F4-80B0-E09FCCE61EA5}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44687</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E5" s="5">
+        <v>44690</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E7" s="5">
+        <v>44688</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8">
+        <v>250</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E9" s="5">
+        <v>44689</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E11" s="4">
+        <v>44691</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6362A034-533F-4DC4-BE4F-A1B6CA3BAC49}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AFD86-F7EB-48A4-B6DD-0FC41B4FF034}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="7">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="7">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="7">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="7">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="7">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="7">
+        <v>11000</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="7">
+        <v>92</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3280</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="7">
+        <v>200</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="7">
+        <v>250</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="7">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="7">
+        <v>13000</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="7">
+        <v>500</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="7">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="7">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="7">
+        <v>394</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="7">
+        <v>500</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="7">
+        <v>420</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="7">
+        <v>400</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="7">
+        <v>350</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="7">
+        <v>450</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="7">
+        <v>600</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="7">
+        <v>550</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="7">
+        <v>550</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="7">
+        <v>200</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="7">
+        <v>280</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="7">
+        <v>725</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="7">
+        <v>970</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="7">
+        <v>440</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="7">
+        <v>415</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="7">
+        <v>419</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1126.6400000000001</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="7">
+        <v>50</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1285</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2140</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2799</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="7">
+        <v>500</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="7">
+        <v>640</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="7">
+        <v>40</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ProgettoDB/tabelleDB.xlsx
+++ b/ProgettoDB/tabelleDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\campusfc.dir.unibo.it\share\UtentiIngISI\studenti\alesja.delja\Documents\Basi di dati\DBFair\ProgettoDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B0347-8E47-40E9-ACD0-C5F3C4178AA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EDCF1D-AA76-4579-AE75-14BDD0DE180C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitatori" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,19 @@
     <sheet name="Padiglioni" sheetId="3" r:id="rId3"/>
     <sheet name="Spazi" sheetId="4" r:id="rId4"/>
     <sheet name="Prodotti" sheetId="5" r:id="rId5"/>
+    <sheet name="Personale" sheetId="6" r:id="rId6"/>
+    <sheet name="Turni" sheetId="7" r:id="rId7"/>
+    <sheet name="Visitatori-Biglietti-Ordine" sheetId="8" r:id="rId8"/>
+    <sheet name="Ordine" sheetId="9" r:id="rId9"/>
+    <sheet name="Biglietto-Ordine" sheetId="10" r:id="rId10"/>
+    <sheet name="Padiglione-Visitatore" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="291">
   <si>
     <t>codice fiscale</t>
   </si>
@@ -152,9 +158,6 @@
     <t>PASCALINA</t>
   </si>
   <si>
-    <t>LBCGRL03A53A446C</t>
-  </si>
-  <si>
     <t>GABRIELLA LUIGINA</t>
   </si>
   <si>
@@ -224,9 +227,6 @@
     <t>TURCI</t>
   </si>
   <si>
-    <t>TRCTMS19R11C155Z</t>
-  </si>
-  <si>
     <t>codiceAzienda</t>
   </si>
   <si>
@@ -618,6 +618,291 @@
   </si>
   <si>
     <t>montaggio contatori</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>BCCVCN66S27H790C</t>
+  </si>
+  <si>
+    <t>VINCENZO ARTURO</t>
+  </si>
+  <si>
+    <t>BECCE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VINCEN@OUTLOOK.COM</t>
+  </si>
+  <si>
+    <t>SHASHINI SATHIERA</t>
+  </si>
+  <si>
+    <t>SONZINI</t>
+  </si>
+  <si>
+    <t>SNZSSH70H64M126W</t>
+  </si>
+  <si>
+    <t>SHASHI@OUTLOOK.IT</t>
+  </si>
+  <si>
+    <t>DHIMITRI</t>
+  </si>
+  <si>
+    <t>BANFI</t>
+  </si>
+  <si>
+    <t>BNFDMT63A27C065W</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>sicurezza</t>
+  </si>
+  <si>
+    <t>DHIMIT@LIVE.COM</t>
+  </si>
+  <si>
+    <t>ANGJE</t>
+  </si>
+  <si>
+    <t>CHIOVETTA</t>
+  </si>
+  <si>
+    <t>CHVNGJ77S47M361B</t>
+  </si>
+  <si>
+    <t>ANGJE@OUTLOOK.COM</t>
+  </si>
+  <si>
+    <t>GILIANA MARIA</t>
+  </si>
+  <si>
+    <t>CANNIOTO</t>
+  </si>
+  <si>
+    <t>CNNGNM83M62I629Y</t>
+  </si>
+  <si>
+    <t>GILIAN@HOTMAIL.IT</t>
+  </si>
+  <si>
+    <t>FIQIRETE</t>
+  </si>
+  <si>
+    <t>BELLISI</t>
+  </si>
+  <si>
+    <t>BLLFRT97D70H481W</t>
+  </si>
+  <si>
+    <t>FIQIRE@OUTLOOK.IT</t>
+  </si>
+  <si>
+    <t>biglietteria</t>
+  </si>
+  <si>
+    <t>TERESA ELSA</t>
+  </si>
+  <si>
+    <t>CONTARDI</t>
+  </si>
+  <si>
+    <t>CNTTSL72S42D496U</t>
+  </si>
+  <si>
+    <t>TERESA@HOTMAIL.IT</t>
+  </si>
+  <si>
+    <t>ELPIDIA CARLITA</t>
+  </si>
+  <si>
+    <t>SAMSEM</t>
+  </si>
+  <si>
+    <t>SMSLDC87T67I132F</t>
+  </si>
+  <si>
+    <t>ELPIDI@OUTLOOK.COM</t>
+  </si>
+  <si>
+    <t>HAIQING</t>
+  </si>
+  <si>
+    <t>REGGE</t>
+  </si>
+  <si>
+    <t>RGGHNG96M14H088I</t>
+  </si>
+  <si>
+    <t>HAIQIN@OUTLOOK.IT</t>
+  </si>
+  <si>
+    <t>LUNA ANNA</t>
+  </si>
+  <si>
+    <t>NAVIRE</t>
+  </si>
+  <si>
+    <t>NVRLNN51L68F631D</t>
+  </si>
+  <si>
+    <t>LUNAA@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>MAROUANE</t>
+  </si>
+  <si>
+    <t>BELLORA</t>
+  </si>
+  <si>
+    <t>BLLMRN00S15A581S</t>
+  </si>
+  <si>
+    <t>MAROUA@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>pulizia</t>
+  </si>
+  <si>
+    <t>GIOVANNA MARIA TERESA</t>
+  </si>
+  <si>
+    <t>BRESSAN DE NATALI</t>
+  </si>
+  <si>
+    <t>BRSGNN66P70L363B</t>
+  </si>
+  <si>
+    <t>GIOVAN@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>JARI</t>
+  </si>
+  <si>
+    <t>GIORGIS</t>
+  </si>
+  <si>
+    <t>GRGJRA94L05G152S</t>
+  </si>
+  <si>
+    <t>JARI@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>BRUNO GIOVANNI ANTONIO</t>
+  </si>
+  <si>
+    <t>MARTELLINI</t>
+  </si>
+  <si>
+    <t>MRTBNG04C03I124I</t>
+  </si>
+  <si>
+    <t>BRUNO@OUTLOOK.IT</t>
+  </si>
+  <si>
+    <t>FANTA</t>
+  </si>
+  <si>
+    <t>PLATON</t>
+  </si>
+  <si>
+    <t>PLTFNT71M50E911K</t>
+  </si>
+  <si>
+    <t>FANTA@HOTMAIL.IT</t>
+  </si>
+  <si>
+    <t>idTurno</t>
+  </si>
+  <si>
+    <t>giorno</t>
+  </si>
+  <si>
+    <t>orario</t>
+  </si>
+  <si>
+    <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>codVisitatore</t>
+  </si>
+  <si>
+    <t>codOrdine</t>
+  </si>
+  <si>
+    <t>codBiglietto</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>LBCGRL09A53A446C</t>
+  </si>
+  <si>
+    <t>TRCTMS09R11C155Z</t>
+  </si>
+  <si>
+    <t>ridotto</t>
+  </si>
+  <si>
+    <t>singolo</t>
+  </si>
+  <si>
+    <t>online singolo</t>
+  </si>
+  <si>
+    <t>pass azienda</t>
+  </si>
+  <si>
+    <t>tutti i padiglioni</t>
+  </si>
+  <si>
+    <t>9.99</t>
+  </si>
+  <si>
+    <t>famiglia</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>gruppo 5-10</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>idOrdine</t>
+  </si>
+  <si>
+    <t>saldoTotale</t>
+  </si>
+  <si>
+    <t>codPromozione</t>
+  </si>
+  <si>
+    <t>CodicePadiglione</t>
+  </si>
+  <si>
+    <t>CodiceFiscale</t>
   </si>
 </sst>
 </file>
@@ -658,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,6 +956,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -988,7 +1274,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1495,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
@@ -1223,16 +1509,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D14" s="2">
-        <v>37634</v>
+        <v>39826</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
@@ -1240,13 +1526,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D15" s="2">
         <v>27042</v>
@@ -1257,13 +1543,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D16" s="2">
         <v>24423</v>
@@ -1274,13 +1560,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D17" s="2">
         <v>17889</v>
@@ -1291,13 +1577,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D18" s="2">
         <v>12915</v>
@@ -1308,13 +1594,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="2">
         <v>20161</v>
@@ -1325,13 +1611,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D20" s="2">
         <v>23895</v>
@@ -1342,19 +1628,321 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>272</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D21" s="2">
-        <v>43749</v>
+        <v>40097</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EDA475-0719-488B-8F73-8984E90739D1}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44690</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7010B8BF-F90F-4FAB-AADE-AD62F1E81F69}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -1380,16 +1968,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,10 +1985,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1411,10 +1999,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -1425,10 +2013,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1439,10 +2027,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1453,10 +2041,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1467,10 +2055,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1481,10 +2069,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -1495,10 +2083,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1509,10 +2097,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1523,10 +2111,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1537,10 +2125,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1551,10 +2139,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1565,10 +2153,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1579,10 +2167,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1593,10 +2181,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1607,10 +2195,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1621,10 +2209,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1635,10 +2223,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1649,10 +2237,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1663,10 +2251,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -1677,10 +2265,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -1691,10 +2279,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -1705,10 +2293,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -1719,10 +2307,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1733,10 +2321,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1813,25 +2401,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3">
         <v>0.625</v>
@@ -1860,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3">
         <v>0.5</v>
@@ -1883,7 +2471,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3">
         <v>0.70833333333333337</v>
@@ -1904,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3">
         <v>0.375</v>
@@ -1927,7 +2515,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3">
         <v>0.66666666666666663</v>
@@ -1948,7 +2536,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3">
         <v>0.375</v>
@@ -1971,7 +2559,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3">
         <v>0.58333333333333337</v>
@@ -1992,7 +2580,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3">
         <v>0.375</v>
@@ -2015,7 +2603,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3">
         <v>0.5</v>
@@ -2036,7 +2624,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3">
         <v>0.41666666666666669</v>
@@ -2072,15 +2660,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2088,7 +2676,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2096,7 +2684,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2104,7 +2692,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2112,7 +2700,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2120,7 +2708,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2128,7 +2716,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2136,7 +2724,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -2144,7 +2732,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2152,7 +2740,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2160,7 +2748,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2168,7 +2756,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2176,7 +2764,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2184,7 +2772,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2192,7 +2780,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2200,7 +2788,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2208,7 +2796,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2216,7 +2804,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2224,7 +2812,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2232,7 +2820,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -2240,7 +2828,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2248,7 +2836,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2256,7 +2844,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -2264,7 +2852,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -2279,7 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AFD86-F7EB-48A4-B6DD-0FC41B4FF034}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2294,19 +2882,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>119</v>
-      </c>
-      <c r="D1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2314,13 +2902,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="7">
         <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2331,13 +2919,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="7">
         <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2348,13 +2936,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="7">
         <v>40</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2365,13 +2953,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="7">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2382,13 +2970,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="7">
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2399,13 +2987,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="7">
         <v>11000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -2416,13 +3004,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="7">
         <v>92</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -2433,13 +3021,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="7">
         <v>3280</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -2450,13 +3038,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="7">
         <v>200</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -2467,13 +3055,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="7">
         <v>250</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -2484,13 +3072,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" s="7">
         <v>20000</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -2501,13 +3089,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="7">
         <v>13000</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -2518,13 +3106,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" s="7">
         <v>10000</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -2535,13 +3123,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C15" s="7">
         <v>500</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -2552,13 +3140,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C16" s="7">
         <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -2569,13 +3157,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -2586,13 +3174,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" s="7">
         <v>394</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -2603,13 +3191,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C19" s="7">
         <v>500</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -2620,13 +3208,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C20" s="7">
         <v>420</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -2637,13 +3225,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21" s="7">
         <v>400</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -2654,13 +3242,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C22" s="7">
         <v>350</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -2671,13 +3259,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C23" s="7">
         <v>450</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -2688,13 +3276,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C24" s="7">
         <v>600</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E24">
         <v>11</v>
@@ -2705,13 +3293,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C25" s="7">
         <v>550</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E25">
         <v>11</v>
@@ -2722,13 +3310,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C26" s="7">
         <v>550</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E26">
         <v>11</v>
@@ -2739,13 +3327,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C27" s="7">
         <v>200</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E27">
         <v>12</v>
@@ -2756,13 +3344,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C28" s="7">
         <v>280</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E28">
         <v>12</v>
@@ -2773,13 +3361,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="7">
         <v>725</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E29">
         <v>12</v>
@@ -2790,13 +3378,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C30" s="7">
         <v>970</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E30">
         <v>13</v>
@@ -2807,13 +3395,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C31" s="7">
         <v>440</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E31">
         <v>13</v>
@@ -2824,13 +3412,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C32" s="7">
         <v>415</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E32">
         <v>13</v>
@@ -2841,13 +3429,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" s="7">
         <v>419</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E33">
         <v>14</v>
@@ -2858,13 +3446,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C34" s="7">
         <v>1126.6400000000001</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E34">
         <v>15</v>
@@ -2875,13 +3463,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C35" s="7">
         <v>50</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E35">
         <v>16</v>
@@ -2892,13 +3480,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C36" s="7">
         <v>1285</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E36">
         <v>17</v>
@@ -2909,13 +3497,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C37" s="7">
         <v>2140</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E37">
         <v>18</v>
@@ -2926,13 +3514,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C38" s="7">
         <v>2799</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E38">
         <v>19</v>
@@ -2943,13 +3531,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C39" s="7">
         <v>500</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E39">
         <v>20</v>
@@ -2960,13 +3548,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C40" s="7">
         <v>640</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E40">
         <v>21</v>
@@ -2977,13 +3565,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C41" s="7">
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E41">
         <v>22</v>
@@ -2994,13 +3582,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C42" s="7">
         <v>1000</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E42">
         <v>23</v>
@@ -3011,13 +3599,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C43" s="7">
         <v>1000</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E43">
         <v>24</v>
@@ -3028,13 +3616,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C44" s="7">
         <v>2000</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E44">
         <v>25</v>
@@ -3050,4 +3638,1211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854F0BA1-0DD3-4B0F-AC07-0158081879DA}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A12:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="8">
+        <v>24438</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2">
+        <v>60661680</v>
+      </c>
+      <c r="H2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="8">
+        <v>25743</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3">
+        <v>48282120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="8">
+        <v>23038</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4">
+        <v>26414720</v>
+      </c>
+      <c r="H4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="8">
+        <v>28436</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5">
+        <v>70374210</v>
+      </c>
+      <c r="H5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="8">
+        <v>30550</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6">
+        <v>26380653</v>
+      </c>
+      <c r="H6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="8">
+        <v>35550</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7">
+        <v>30025161</v>
+      </c>
+      <c r="H7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="8">
+        <v>26605</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8">
+        <v>50114856</v>
+      </c>
+      <c r="H8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="8">
+        <v>32138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9">
+        <v>78946522</v>
+      </c>
+      <c r="H9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="8">
+        <v>35291</v>
+      </c>
+      <c r="E10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10">
+        <v>47413325</v>
+      </c>
+      <c r="H10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="8">
+        <v>18837</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11">
+        <v>95833566</v>
+      </c>
+      <c r="H11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="8">
+        <v>36845</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12">
+        <v>44018126</v>
+      </c>
+      <c r="H12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="8">
+        <v>24380</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13">
+        <v>47863232</v>
+      </c>
+      <c r="H13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="8">
+        <v>34520</v>
+      </c>
+      <c r="E14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14">
+        <v>81099376</v>
+      </c>
+      <c r="H14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="8">
+        <v>38049</v>
+      </c>
+      <c r="E15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15">
+        <v>19322391</v>
+      </c>
+      <c r="H15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="8">
+        <v>26155</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16">
+        <v>91543131</v>
+      </c>
+      <c r="H16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10853F3-B4CE-4B3A-9B8F-202A2AE28844}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44687</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44688</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44689</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44690</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44687</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44688</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44689</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44690</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44687</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44688</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44689</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44690</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60458F7E-6B26-4149-A206-41E3F822CDDD}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44690</v>
+      </c>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44690</v>
+      </c>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44690</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44691</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44688</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44690</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B887FF-DC95-43D7-9461-BB910DCC2439}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>44687</v>
+      </c>
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>44690</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44691</v>
+      </c>
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>44688</v>
+      </c>
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44688</v>
+      </c>
+      <c r="C6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44689</v>
+      </c>
+      <c r="C7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44687</v>
+      </c>
+      <c r="C8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44688</v>
+      </c>
+      <c r="C9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44689</v>
+      </c>
+      <c r="C10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44690</v>
+      </c>
+      <c r="C11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProgettoDB/tabelleDB.xlsx
+++ b/ProgettoDB/tabelleDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\campusfc.dir.unibo.it\share\UtentiIngISI\studenti\alesja.delja\Documents\Basi di dati\DBFair\ProgettoDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EDCF1D-AA76-4579-AE75-14BDD0DE180C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A947A0FB-0D50-4F7B-8665-867591114840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitatori" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="Ordine" sheetId="9" r:id="rId9"/>
     <sheet name="Biglietto-Ordine" sheetId="10" r:id="rId10"/>
     <sheet name="Padiglione-Visitatore" sheetId="11" r:id="rId11"/>
+    <sheet name="Azienda-Spazio" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="291">
   <si>
     <t>codice fiscale</t>
   </si>
@@ -1767,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7010B8BF-F90F-4FAB-AADE-AD62F1E81F69}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -1950,12 +1951,313 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5305FFC6-2977-4ED0-A109-E74B00E4C5EA}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BC05F4-4AAB-4C78-92F9-F5FA5141C6FF}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,7 +2686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26627CC-5AA0-45F4-80B0-E09FCCE61EA5}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2653,7 +2955,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
